--- a/Database/Data_20150722/Rooms.xlsx
+++ b/Database/Data_20150722/Rooms.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FU\Do an tot nghiep\FinalProject\Database\New Data _ 20150608\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FU\Do an tot nghiep\FinalProject\Database\Data_20150722\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="60">
   <si>
     <t>DS phòng</t>
   </si>
@@ -189,6 +189,21 @@
   </si>
   <si>
     <t>HB/309R</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>HB</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>KN</t>
   </si>
 </sst>
 </file>
@@ -287,7 +302,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -305,6 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,15 +609,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -614,8 +633,11 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -628,8 +650,11 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -642,8 +667,11 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -656,8 +684,11 @@
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -668,8 +699,11 @@
         <v>30</v>
       </c>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -680,8 +714,11 @@
         <v>30</v>
       </c>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -692,8 +729,11 @@
         <v>30</v>
       </c>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -704,8 +744,11 @@
         <v>30</v>
       </c>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -716,8 +759,11 @@
         <v>30</v>
       </c>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -728,8 +774,11 @@
         <v>30</v>
       </c>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -740,8 +789,11 @@
         <v>30</v>
       </c>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -752,8 +804,11 @@
         <v>30</v>
       </c>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -764,8 +819,11 @@
         <v>30</v>
       </c>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -776,8 +834,11 @@
         <v>30</v>
       </c>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -788,8 +849,11 @@
         <v>30</v>
       </c>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -800,8 +864,11 @@
         <v>30</v>
       </c>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -811,8 +878,11 @@
       <c r="C17" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -822,8 +892,11 @@
       <c r="C18" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -833,8 +906,11 @@
       <c r="C19" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -844,8 +920,11 @@
       <c r="C20" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -855,8 +934,11 @@
       <c r="C21" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -866,8 +948,11 @@
       <c r="C22" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -877,8 +962,11 @@
       <c r="C23" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -888,8 +976,11 @@
       <c r="C24" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -899,8 +990,11 @@
       <c r="C25" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -910,8 +1004,11 @@
       <c r="C26" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>31</v>
       </c>
@@ -921,8 +1018,11 @@
       <c r="C27" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -932,8 +1032,11 @@
       <c r="C28" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>33</v>
       </c>
@@ -943,8 +1046,11 @@
       <c r="C29" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -954,8 +1060,11 @@
       <c r="C30" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -965,8 +1074,11 @@
       <c r="C31" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -976,8 +1088,11 @@
       <c r="C32" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -988,8 +1103,11 @@
         <v>30</v>
       </c>
       <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -1000,8 +1118,11 @@
         <v>30</v>
       </c>
       <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -1012,8 +1133,11 @@
         <v>30</v>
       </c>
       <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -1024,18 +1148,26 @@
         <v>31</v>
       </c>
       <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="2">
+        <v>30</v>
+      </c>
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
@@ -1046,8 +1178,11 @@
         <v>32</v>
       </c>
       <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -1058,8 +1193,11 @@
         <v>33</v>
       </c>
       <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -1070,8 +1208,11 @@
         <v>30</v>
       </c>
       <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
@@ -1082,8 +1223,11 @@
         <v>30</v>
       </c>
       <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -1094,8 +1238,11 @@
         <v>30</v>
       </c>
       <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
@@ -1106,8 +1253,11 @@
         <v>30</v>
       </c>
       <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
@@ -1118,8 +1268,11 @@
         <v>30</v>
       </c>
       <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
@@ -1130,8 +1283,11 @@
         <v>30</v>
       </c>
       <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
@@ -1142,8 +1298,11 @@
         <v>30</v>
       </c>
       <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
@@ -1154,8 +1313,11 @@
         <v>70</v>
       </c>
       <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -1166,8 +1328,11 @@
         <v>30</v>
       </c>
       <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E48" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -1177,8 +1342,11 @@
       <c r="C49" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E49" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -1188,8 +1356,12 @@
       <c r="C50" s="2">
         <v>30</v>
       </c>
+      <c r="E50" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Database/Data_20150722/Rooms.xlsx
+++ b/Database/Data_20150722/Rooms.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="63">
   <si>
     <t>DS phòng</t>
   </si>
@@ -204,6 +204,15 @@
   </si>
   <si>
     <t>KN</t>
+  </si>
+  <si>
+    <t>HB/202R</t>
+  </si>
+  <si>
+    <t>LAB101, LAB211</t>
+  </si>
+  <si>
+    <t>GDG401, WMT201, DRA301, GDS301, CAA201, PST201, AFA201, GDF101, HOA101, DRF201, VCM201, DRS101, DGT101, PST201, DRP101, VNC101</t>
   </si>
 </sst>
 </file>
@@ -609,15 +618,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="126.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1327,7 +1336,9 @@
       <c r="C48" s="2">
         <v>30</v>
       </c>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E48" s="1" t="s">
         <v>57</v>
       </c>
@@ -1356,7 +1367,27 @@
       <c r="C50" s="2">
         <v>30</v>
       </c>
+      <c r="D50" t="s">
+        <v>62</v>
+      </c>
       <c r="E50" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2">
+        <v>30</v>
+      </c>
+      <c r="D51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" t="s">
         <v>57</v>
       </c>
     </row>

--- a/Database/Data_20150722/Rooms.xlsx
+++ b/Database/Data_20150722/Rooms.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="62">
   <si>
     <t>DS phòng</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Free</t>
   </si>
   <si>
-    <t>SSG101, SSC102, SSC101</t>
-  </si>
-  <si>
     <t>P202</t>
   </si>
   <si>
@@ -212,7 +209,7 @@
     <t>LAB101, LAB211</t>
   </si>
   <si>
-    <t>GDG401, WMT201, DRA301, GDS301, CAA201, PST201, AFA201, GDF101, HOA101, DRF201, VCM201, DRS101, DGT101, PST201, DRP101, VNC101</t>
+    <t>SSG101</t>
   </si>
 </sst>
 </file>
@@ -620,13 +617,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="126.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -643,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -657,15 +654,15 @@
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -674,15 +671,15 @@
         <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -691,15 +688,15 @@
         <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -709,12 +706,12 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -724,12 +721,12 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -739,12 +736,12 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -754,12 +751,12 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -769,12 +766,12 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -784,12 +781,12 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -799,12 +796,12 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -814,12 +811,12 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -829,12 +826,12 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -844,12 +841,12 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -859,12 +856,12 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
@@ -874,12 +871,12 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
@@ -888,12 +885,12 @@
         <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
@@ -902,12 +899,12 @@
         <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
@@ -916,12 +913,12 @@
         <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
@@ -930,12 +927,12 @@
         <v>30</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
@@ -944,12 +941,12 @@
         <v>30</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
@@ -958,12 +955,12 @@
         <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>5</v>
@@ -972,12 +969,12 @@
         <v>30</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>5</v>
@@ -986,12 +983,12 @@
         <v>30</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>5</v>
@@ -1000,12 +997,12 @@
         <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>5</v>
@@ -1014,12 +1011,12 @@
         <v>30</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
@@ -1028,12 +1025,12 @@
         <v>31</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
@@ -1042,12 +1039,12 @@
         <v>32</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>5</v>
@@ -1056,12 +1053,12 @@
         <v>30</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>5</v>
@@ -1070,12 +1067,12 @@
         <v>30</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>5</v>
@@ -1084,12 +1081,12 @@
         <v>30</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>5</v>
@@ -1098,12 +1095,12 @@
         <v>30</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>5</v>
@@ -1113,12 +1110,12 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>5</v>
@@ -1128,12 +1125,12 @@
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>5</v>
@@ -1143,12 +1140,12 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>5</v>
@@ -1158,12 +1155,12 @@
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>5</v>
@@ -1173,12 +1170,12 @@
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>5</v>
@@ -1188,12 +1185,12 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>5</v>
@@ -1203,12 +1200,12 @@
       </c>
       <c r="D39" s="1"/>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>5</v>
@@ -1218,12 +1215,12 @@
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>5</v>
@@ -1233,12 +1230,12 @@
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>5</v>
@@ -1248,12 +1245,12 @@
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>5</v>
@@ -1263,12 +1260,12 @@
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>5</v>
@@ -1278,12 +1275,12 @@
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>5</v>
@@ -1293,12 +1290,12 @@
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>5</v>
@@ -1308,12 +1305,12 @@
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>5</v>
@@ -1323,12 +1320,12 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>5</v>
@@ -1336,16 +1333,14 @@
       <c r="C48" s="2">
         <v>30</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>5</v>
@@ -1354,12 +1349,12 @@
         <v>30</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>5</v>
@@ -1367,28 +1362,25 @@
       <c r="C50" s="2">
         <v>30</v>
       </c>
-      <c r="D50" t="s">
-        <v>62</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2">
+        <v>30</v>
+      </c>
+      <c r="D51" t="s">
         <v>60</v>
       </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="2">
-        <v>30</v>
-      </c>
-      <c r="D51" t="s">
-        <v>61</v>
-      </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
